--- a/01_dashboard/data/dados_cepal.xlsx
+++ b/01_dashboard/data/dados_cepal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bakerhughes-my.sharepoint.com/personal/gabriel_salgueiro2_bakerhughes_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielsalgueiro/Documents/meli_vagaAE/01_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{BB901AB1-2D43-4363-B886-7E2295936F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DEAF1A3-549E-45CC-B6BA-DE0ED4AF4AE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6F61E7-2C5E-1F4D-B52B-850B51228A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{FBA1DE6A-6100-4167-8C2B-F3892BF38AF4}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="25600" windowHeight="14780" xr2:uid="{FBA1DE6A-6100-4167-8C2B-F3892BF38AF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,6 +129,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,25 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -509,726 +493,727 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF38BEC0-1469-49ED-BAFD-1AD76AB90875}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>6.99</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>12.49</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>6.68</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>3.1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>38.9</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>85.3</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>187.5</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>94</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>56.1</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>101</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>221</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>94.7</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
         <v>54.138912449999999</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
         <v>6.1610778140000004</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
         <v>3.450804293</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
         <v>3.0704249620000001</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="3">
         <v>40</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="3">
         <v>38</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="3">
         <v>40</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="3">
         <v>38</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="3">
         <v>37</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="3">
         <v>33</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="3">
         <v>34</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="3">
         <v>32</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="3">
         <v>36.4</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="3">
         <v>39.5</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="12">
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3">
         <v>6.99</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3">
         <v>12.49</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3">
         <v>6.68</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3">
         <v>3.1</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="14">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
         <v>54</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="14">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="14">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3">
         <v>9.5</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="3">
         <v>21.79</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="3">
         <v>23.22</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="3">
         <v>16.36</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="3">
         <v>35.75</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="3">
         <v>22.6</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="3">
         <v>36.1</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="3">
         <v>27.9</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="3">
         <v>35.700000000000003</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" t="s">
         <v>14</v>
       </c>
     </row>
